--- a/量计算.xlsx
+++ b/量计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E648D21A-79FC-43AB-AE8D-65D6695D6BF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66CA9272-2F68-4F8B-A64E-0BCDDD9F7FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>2.25-2.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.19-2.68</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,11 +539,28 @@
       <c r="A13" s="1">
         <v>43216</v>
       </c>
+      <c r="B13" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12.19</v>
+      </c>
       <c r="D13" s="3">
         <v>12.5</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43217</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/量计算.xlsx
+++ b/量计算.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66CA9272-2F68-4F8B-A64E-0BCDDD9F7FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{938F5B17-18EB-418C-A61D-38FC941674DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="海螺水泥" sheetId="1" r:id="rId1"/>
+    <sheet name="伊利股份" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,33 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>量</t>
+    <t>前四日量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5日均量</t>
+    <t>前三日量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预估</t>
+    <t>前二日量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一盘量要求</t>
+    <t>前一日量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.25-2.75</t>
+    <t>预估成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.19-2.68</t>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日均量（先估后实）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一盘目标量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.41-5.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,16 +92,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="4" tint="0.39997558519241921"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -108,11 +127,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -128,6 +156,1031 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>伊利股份!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E66E-40DD-AE0B-C7DDED663E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="888027984"/>
+        <c:axId val="888029624"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>伊利股份!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E66E-40DD-AE0B-C7DDED663E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="888027984"/>
+        <c:axId val="888029624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="888027984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888029624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="888029624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888027984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CBD6D6-DFBB-437A-91FB-2020A623577C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,180 +1445,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478C5210-DE55-4EE0-A9C0-3C46FDDE66BD}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="C1" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="D1" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="E1" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>41</v>
+      </c>
+      <c r="G1">
+        <v>26.7</v>
+      </c>
+      <c r="H1">
+        <v>18.3</v>
+      </c>
+      <c r="I1">
+        <v>39</v>
+      </c>
+      <c r="J1">
+        <v>31.6</v>
+      </c>
+      <c r="K1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>26.7</v>
+      </c>
+      <c r="G2">
+        <v>18.3</v>
+      </c>
+      <c r="H2">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>31.6</v>
+      </c>
+      <c r="J2">
+        <v>19.5</v>
+      </c>
+      <c r="K2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>26.7</v>
+      </c>
+      <c r="F3">
+        <v>18.3</v>
+      </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>31.6</v>
+      </c>
+      <c r="I3">
+        <v>19.5</v>
+      </c>
+      <c r="J3">
+        <v>16.2</v>
+      </c>
+      <c r="K3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>26.7</v>
+      </c>
+      <c r="E4">
+        <v>18.3</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>31.6</v>
+      </c>
+      <c r="H4">
+        <v>19.5</v>
+      </c>
+      <c r="I4">
+        <v>16.2</v>
+      </c>
+      <c r="J4">
+        <v>19.5</v>
+      </c>
+      <c r="K4">
+        <v>32.619999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>26.7</v>
+      </c>
+      <c r="D5">
+        <v>18.3</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>31.6</v>
+      </c>
+      <c r="G5">
+        <v>19.5</v>
+      </c>
+      <c r="H5">
+        <v>16.2</v>
+      </c>
+      <c r="I5">
+        <v>19.5</v>
+      </c>
+      <c r="J5">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="K5">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="B7" s="1">
+        <v>43222</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43223</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43224</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43227</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43228</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43229</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43230</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43231</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43234</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43235</v>
+      </c>
+      <c r="L7" s="1">
+        <v>43236</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43237</v>
+      </c>
+      <c r="N7" s="1">
+        <v>43238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43201</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12.4</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>157.5</v>
+      </c>
+      <c r="C8">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="D8">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="E8">
+        <v>185.1</v>
+      </c>
+      <c r="F8">
+        <v>156.6</v>
+      </c>
+      <c r="G8">
+        <v>135.1</v>
+      </c>
+      <c r="H8">
+        <v>124.6</v>
+      </c>
+      <c r="I8">
+        <v>125.8</v>
+      </c>
+      <c r="J8">
+        <v>119.42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43202</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10.8</v>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>31.34</v>
+      </c>
+      <c r="D9" s="3">
+        <v>31.86</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>31.32</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27.02</v>
+      </c>
+      <c r="H9" s="3">
+        <v>24.92</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25.16</v>
+      </c>
+      <c r="J9" s="3">
+        <v>23.86</v>
+      </c>
+      <c r="K9" s="3">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43203</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10.5</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>4.76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43206</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43207</v>
-      </c>
-      <c r="B6" s="2">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43208</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43209</v>
-      </c>
-      <c r="B8" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>13.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43210</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43213</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8.07</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11.054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43214</v>
-      </c>
-      <c r="B11" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12.474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43215</v>
-      </c>
-      <c r="B12" s="2">
-        <v>9.68</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12.23</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43216</v>
-      </c>
-      <c r="B13" s="2">
-        <v>11.72</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12.19</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43217</v>
-      </c>
-      <c r="D14" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>25.24</v>
+      </c>
+      <c r="C11">
+        <v>25.14</v>
+      </c>
+      <c r="D11">
+        <v>24.83</v>
+      </c>
+      <c r="E11">
+        <v>25.97</v>
+      </c>
+      <c r="F11">
+        <v>26.3</v>
+      </c>
+      <c r="G11">
+        <v>26.23</v>
+      </c>
+      <c r="H11">
+        <v>26.38</v>
+      </c>
+      <c r="I11">
+        <v>25.91</v>
+      </c>
+      <c r="J11">
+        <v>27.04</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/量计算.xlsx
+++ b/量计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{938F5B17-18EB-418C-A61D-38FC941674DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{663DD795-8DA7-4E96-ACA9-EBC5420594F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/量计算.xlsx
+++ b/量计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{663DD795-8DA7-4E96-ACA9-EBC5420594F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4BD58BF7-3527-4C58-AFDA-602FD6E58E67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,15 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一盘目标量</t>
+    <t>价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.41-5.39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价</t>
+    <t>4.5-4.84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -136,9 +132,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -270,7 +263,7 @@
                   <c:v>32.619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.5</c:v>
+                  <c:v>20.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,7 +339,7 @@
                   <c:v>23.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>21.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,13 +1141,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1449,7 +1442,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1491,6 +1484,12 @@
       <c r="K1">
         <v>19.5</v>
       </c>
+      <c r="L1">
+        <v>16.2</v>
+      </c>
+      <c r="M1">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1526,6 +1525,12 @@
       <c r="K2">
         <v>16.2</v>
       </c>
+      <c r="L2">
+        <v>19.5</v>
+      </c>
+      <c r="M2">
+        <v>32.619999999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1561,6 +1566,12 @@
       <c r="K3">
         <v>19.5</v>
       </c>
+      <c r="L3">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="M3">
+        <v>20.48</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1596,6 +1607,12 @@
       <c r="K4">
         <v>32.619999999999997</v>
       </c>
+      <c r="L4">
+        <v>20.48</v>
+      </c>
+      <c r="M4">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1629,7 +1646,10 @@
         <v>32.619999999999997</v>
       </c>
       <c r="K5">
-        <v>24.5</v>
+        <v>20.48</v>
+      </c>
+      <c r="L5">
+        <v>26.7</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1642,6 +1662,12 @@
       <c r="K6" s="2">
         <v>24.5</v>
       </c>
+      <c r="L6" s="2">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1718,88 +1744,98 @@
       <c r="J8">
         <v>119.42</v>
       </c>
+      <c r="K8">
+        <v>108.3</v>
+      </c>
+      <c r="L8">
+        <v>115.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>31.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>31.34</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>31.86</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>37.020000000000003</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>31.32</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>27.02</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>24.92</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>25.16</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>23.86</v>
       </c>
-      <c r="K9" s="3">
-        <v>24</v>
+      <c r="K9" s="2">
+        <v>21.64</v>
+      </c>
+      <c r="L9" s="2">
+        <v>23.1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>25.24</v>
+      </c>
+      <c r="C10">
+        <v>25.14</v>
+      </c>
+      <c r="D10">
+        <v>24.83</v>
+      </c>
+      <c r="E10">
+        <v>25.97</v>
+      </c>
+      <c r="F10">
+        <v>26.3</v>
+      </c>
+      <c r="G10">
+        <v>26.23</v>
+      </c>
+      <c r="H10">
+        <v>26.38</v>
+      </c>
+      <c r="I10">
+        <v>25.91</v>
+      </c>
       <c r="J10">
-        <v>4.76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
+        <v>27.04</v>
+      </c>
+      <c r="K10">
+        <v>27.07</v>
+      </c>
+      <c r="L10" s="3">
+        <v>27.57</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>25.24</v>
-      </c>
-      <c r="C11">
-        <v>25.14</v>
-      </c>
-      <c r="D11">
-        <v>24.83</v>
-      </c>
-      <c r="E11">
-        <v>25.97</v>
-      </c>
-      <c r="F11">
-        <v>26.3</v>
-      </c>
-      <c r="G11">
-        <v>26.23</v>
-      </c>
-      <c r="H11">
-        <v>26.38</v>
-      </c>
-      <c r="I11">
-        <v>25.91</v>
-      </c>
-      <c r="J11">
-        <v>27.04</v>
+      <c r="M11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/量计算.xlsx
+++ b/量计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4BD58BF7-3527-4C58-AFDA-602FD6E58E67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3A17E62-FE45-4E81-B0A8-FB4B880F412C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>4.5-4.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.97-3.63</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,10 +235,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>伊利股份!$B$5:$K$5</c:f>
+              <c:f>伊利股份!$B$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
                 </c:pt>
@@ -264,6 +268,30 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,10 +335,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>伊利股份!$B$9:$K$9</c:f>
+              <c:f>伊利股份!$B$9:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>31.5</c:v>
                 </c:pt>
@@ -340,6 +368,30 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.239999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,15 +1192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1439,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478C5210-DE55-4EE0-A9C0-3C46FDDE66BD}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1450,7 +1502,7 @@
     <col min="1" max="1" width="20.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1490,8 +1542,29 @@
       <c r="M1">
         <v>19.5</v>
       </c>
+      <c r="N1">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="O1">
+        <v>20.48</v>
+      </c>
+      <c r="P1">
+        <v>26.7</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>13.4</v>
+      </c>
+      <c r="S1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="T1">
+        <v>11.7</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1531,8 +1604,29 @@
       <c r="M2">
         <v>32.619999999999997</v>
       </c>
+      <c r="N2">
+        <v>20.48</v>
+      </c>
+      <c r="O2">
+        <v>26.7</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>13.4</v>
+      </c>
+      <c r="R2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="S2">
+        <v>11.7</v>
+      </c>
+      <c r="T2">
+        <v>22.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1572,8 +1666,29 @@
       <c r="M3">
         <v>20.48</v>
       </c>
+      <c r="N3">
+        <v>26.7</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>13.4</v>
+      </c>
+      <c r="Q3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="R3">
+        <v>11.7</v>
+      </c>
+      <c r="S3">
+        <v>22.1</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1613,8 +1728,29 @@
       <c r="M4">
         <v>26.7</v>
       </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>13.4</v>
+      </c>
+      <c r="P4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>11.7</v>
+      </c>
+      <c r="R4">
+        <v>22.1</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1651,8 +1787,29 @@
       <c r="L5">
         <v>26.7</v>
       </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>13.4</v>
+      </c>
+      <c r="O5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P5">
+        <v>11.7</v>
+      </c>
+      <c r="Q5">
+        <v>22.1</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1668,8 +1825,11 @@
       <c r="M6" s="2">
         <v>25</v>
       </c>
+      <c r="T6" s="2">
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1872,26 @@
       <c r="N7" s="1">
         <v>43238</v>
       </c>
+      <c r="O7" s="1">
+        <v>43241</v>
+      </c>
+      <c r="P7" s="1">
+        <v>43242</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>43243</v>
+      </c>
+      <c r="R7" s="1">
+        <v>43244</v>
+      </c>
+      <c r="S7" s="1">
+        <v>43245</v>
+      </c>
+      <c r="T7" s="1">
+        <v>43248</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1929,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1788,8 +1966,32 @@
       <c r="L9" s="2">
         <v>23.1</v>
       </c>
+      <c r="M9" s="2">
+        <v>22.66</v>
+      </c>
+      <c r="N9" s="2">
+        <v>21.44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>18.23</v>
+      </c>
+      <c r="P9" s="2">
+        <v>16.48</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>15.56</v>
+      </c>
+      <c r="R9" s="2">
+        <v>16.36</v>
+      </c>
+      <c r="S9" s="2">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="T9" s="2">
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1827,9 +2029,12 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="M11" t="s">
         <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
